--- a/goal_app_data.xlsx
+++ b/goal_app_data.xlsx
@@ -506,6 +506,7 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:C9"/>
   </ignoredErrors>
@@ -586,6 +587,7 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
   </ignoredErrors>
@@ -594,7 +596,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -607,16 +609,25 @@
         <v>Jackson Goal</v>
       </c>
       <c r="C1" t="str">
+        <v>Jackson Goal Credits</v>
+      </c>
+      <c r="D1" t="str">
         <v>Natalie</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Natalie Goal</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
+        <v>Natalie Goal Credits</v>
+      </c>
+      <c r="G1" t="str">
         <v>Brooke</v>
       </c>
-      <c r="F1" t="str">
+      <c r="H1" t="str">
         <v>Brooke Goal</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Brooke Goal Credits</v>
       </c>
     </row>
     <row r="2">
@@ -624,31 +635,99 @@
         <v>play baseball game</v>
       </c>
       <c r="B2" t="str">
+        <v>Hit Baseball Over Infeed</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="str">
+        <v>play softball game</v>
+      </c>
+      <c r="E2" t="str">
         <v>Get a Out</v>
       </c>
-      <c r="C2" t="str">
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2" t="str">
         <v>play softball game</v>
       </c>
-      <c r="D2" t="str">
+      <c r="H2" t="str">
+        <v>Hit a Pitch from a Kid</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v/>
+      </c>
+      <c r="B3" t="str">
         <v>Get a Out</v>
       </c>
-      <c r="E2" t="str">
-        <v>play softball game</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Hit Pitch from Kid</v>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v>Hit a Double</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v>Get a Out</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v/>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v>Go a Whole Week Without Yelling at Mom</v>
+      </c>
+      <c r="F4">
+        <v>25</v>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -699,7 +778,7 @@
         <v>yes</v>
       </c>
       <c r="C2" t="str">
-        <v>Breakfast Oats</v>
+        <v>Doughnuts</v>
       </c>
       <c r="D2" t="str">
         <v>yes</v>
@@ -723,7 +802,7 @@
         <v>yes</v>
       </c>
       <c r="K2" t="str">
-        <v>Cheese stick</v>
+        <v>Fruit Rolls</v>
       </c>
       <c r="L2" t="str">
         <v>yes</v>
@@ -737,7 +816,7 @@
         <v>yes</v>
       </c>
       <c r="C3" t="str">
-        <v>Doughnuts</v>
+        <v>French Toast</v>
       </c>
       <c r="D3" t="str">
         <v>yes</v>
@@ -761,7 +840,7 @@
         <v>yes</v>
       </c>
       <c r="K3" t="str">
-        <v>Fruit Rolls</v>
+        <v>Granola bar</v>
       </c>
       <c r="L3" t="str">
         <v>yes</v>
@@ -775,7 +854,7 @@
         <v>yes</v>
       </c>
       <c r="C4" t="str">
-        <v>French Toast</v>
+        <v>Pancakes</v>
       </c>
       <c r="D4" t="str">
         <v>yes</v>
@@ -799,7 +878,7 @@
         <v>yes</v>
       </c>
       <c r="K4" t="str">
-        <v>Granola bar</v>
+        <v>Apple Sauce Pouch</v>
       </c>
       <c r="L4" t="str">
         <v>yes</v>
@@ -813,7 +892,7 @@
         <v>yes</v>
       </c>
       <c r="C5" t="str">
-        <v>Pancakes</v>
+        <v>Waffles</v>
       </c>
       <c r="D5" t="str">
         <v>yes</v>
@@ -837,7 +916,7 @@
         <v>yes</v>
       </c>
       <c r="K5" t="str">
-        <v>Apple Sauce Pouch</v>
+        <v>Pretzels</v>
       </c>
       <c r="L5" t="str">
         <v>yes</v>
@@ -851,10 +930,10 @@
         <v>yes</v>
       </c>
       <c r="C6" t="str">
-        <v>Waffles</v>
+        <v/>
       </c>
       <c r="D6" t="str">
-        <v>yes</v>
+        <v/>
       </c>
       <c r="E6" t="str">
         <v>Peanut Butter and Jelly</v>
@@ -875,7 +954,7 @@
         <v>yes</v>
       </c>
       <c r="K6" t="str">
-        <v>Pretzels</v>
+        <v>Ritz Crackers</v>
       </c>
       <c r="L6" t="str">
         <v>yes</v>
@@ -913,10 +992,10 @@
         <v>yes</v>
       </c>
       <c r="K7" t="str">
-        <v/>
+        <v>Doritos</v>
       </c>
       <c r="L7" t="str">
-        <v/>
+        <v>yes</v>
       </c>
     </row>
     <row r="8">
@@ -951,10 +1030,10 @@
         <v>yes</v>
       </c>
       <c r="K8" t="str">
-        <v/>
+        <v>Sun Chips</v>
       </c>
       <c r="L8" t="str">
-        <v/>
+        <v>yes</v>
       </c>
     </row>
     <row r="9">
@@ -1185,9 +1264,85 @@
         <v/>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Keish</v>
+      </c>
+      <c r="B15" t="str">
+        <v>yes</v>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Breakfast Oats</v>
+      </c>
+      <c r="B16" t="str">
+        <v>yes</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L16"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1420,6 +1575,7 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:F11"/>
   </ignoredErrors>

--- a/goal_app_data.xlsx
+++ b/goal_app_data.xlsx
@@ -506,7 +506,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:C9"/>
   </ignoredErrors>
@@ -587,7 +586,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
   </ignoredErrors>
@@ -718,7 +716,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
   </ignoredErrors>
@@ -727,7 +724,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -771,14 +768,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>Bacon</v>
-      </c>
       <c r="B2" t="str">
         <v>yes</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Doughnuts</v>
       </c>
       <c r="D2" t="str">
         <v>yes</v>
@@ -809,17 +800,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>Blackberries</v>
-      </c>
       <c r="B3" t="str">
         <v>yes</v>
       </c>
       <c r="C3" t="str">
-        <v>French Toast</v>
+        <v/>
       </c>
       <c r="D3" t="str">
-        <v>yes</v>
+        <v/>
       </c>
       <c r="E3" t="str">
         <v>Noodles</v>
@@ -847,17 +835,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>Cereal</v>
-      </c>
       <c r="B4" t="str">
         <v>yes</v>
       </c>
       <c r="C4" t="str">
-        <v>Pancakes</v>
+        <v/>
       </c>
       <c r="D4" t="str">
-        <v>yes</v>
+        <v/>
       </c>
       <c r="E4" t="str">
         <v>Pasta Salad</v>
@@ -886,16 +871,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Cheese and Bread</v>
+        <v/>
       </c>
       <c r="B5" t="str">
-        <v>yes</v>
+        <v/>
       </c>
       <c r="C5" t="str">
-        <v>Waffles</v>
+        <v/>
       </c>
       <c r="D5" t="str">
-        <v>yes</v>
+        <v/>
       </c>
       <c r="E5" t="str">
         <v>Peanut Butter and Banana</v>
@@ -924,10 +909,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Cinnamon Raisan</v>
+        <v/>
       </c>
       <c r="B6" t="str">
-        <v>yes</v>
+        <v/>
       </c>
       <c r="C6" t="str">
         <v/>
@@ -962,10 +947,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Eggs</v>
+        <v/>
       </c>
       <c r="B7" t="str">
-        <v>yes</v>
+        <v/>
       </c>
       <c r="C7" t="str">
         <v/>
@@ -1000,10 +985,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Oatmeal</v>
+        <v/>
       </c>
       <c r="B8" t="str">
-        <v>yes</v>
+        <v/>
       </c>
       <c r="C8" t="str">
         <v/>
@@ -1038,10 +1023,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Oranges</v>
+        <v/>
       </c>
       <c r="B9" t="str">
-        <v>yes</v>
+        <v/>
       </c>
       <c r="C9" t="str">
         <v/>
@@ -1074,275 +1059,9 @@
         <v/>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Plain Bagel</v>
-      </c>
-      <c r="B10" t="str">
-        <v>yes</v>
-      </c>
-      <c r="C10" t="str">
-        <v/>
-      </c>
-      <c r="D10" t="str">
-        <v/>
-      </c>
-      <c r="E10" t="str">
-        <v/>
-      </c>
-      <c r="F10" t="str">
-        <v/>
-      </c>
-      <c r="G10" t="str">
-        <v/>
-      </c>
-      <c r="H10" t="str">
-        <v/>
-      </c>
-      <c r="I10" t="str">
-        <v/>
-      </c>
-      <c r="J10" t="str">
-        <v/>
-      </c>
-      <c r="K10" t="str">
-        <v/>
-      </c>
-      <c r="L10" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Rasberries</v>
-      </c>
-      <c r="B11" t="str">
-        <v>yes</v>
-      </c>
-      <c r="C11" t="str">
-        <v/>
-      </c>
-      <c r="D11" t="str">
-        <v/>
-      </c>
-      <c r="E11" t="str">
-        <v/>
-      </c>
-      <c r="F11" t="str">
-        <v/>
-      </c>
-      <c r="G11" t="str">
-        <v/>
-      </c>
-      <c r="H11" t="str">
-        <v/>
-      </c>
-      <c r="I11" t="str">
-        <v/>
-      </c>
-      <c r="J11" t="str">
-        <v/>
-      </c>
-      <c r="K11" t="str">
-        <v/>
-      </c>
-      <c r="L11" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Smoothie</v>
-      </c>
-      <c r="B12" t="str">
-        <v>yes</v>
-      </c>
-      <c r="C12" t="str">
-        <v/>
-      </c>
-      <c r="D12" t="str">
-        <v/>
-      </c>
-      <c r="E12" t="str">
-        <v/>
-      </c>
-      <c r="F12" t="str">
-        <v/>
-      </c>
-      <c r="G12" t="str">
-        <v/>
-      </c>
-      <c r="H12" t="str">
-        <v/>
-      </c>
-      <c r="I12" t="str">
-        <v/>
-      </c>
-      <c r="J12" t="str">
-        <v/>
-      </c>
-      <c r="K12" t="str">
-        <v/>
-      </c>
-      <c r="L12" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Strawberries</v>
-      </c>
-      <c r="B13" t="str">
-        <v>yes</v>
-      </c>
-      <c r="C13" t="str">
-        <v/>
-      </c>
-      <c r="D13" t="str">
-        <v/>
-      </c>
-      <c r="E13" t="str">
-        <v/>
-      </c>
-      <c r="F13" t="str">
-        <v/>
-      </c>
-      <c r="G13" t="str">
-        <v/>
-      </c>
-      <c r="H13" t="str">
-        <v/>
-      </c>
-      <c r="I13" t="str">
-        <v/>
-      </c>
-      <c r="J13" t="str">
-        <v/>
-      </c>
-      <c r="K13" t="str">
-        <v/>
-      </c>
-      <c r="L13" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Yogurt</v>
-      </c>
-      <c r="B14" t="str">
-        <v>yes</v>
-      </c>
-      <c r="C14" t="str">
-        <v/>
-      </c>
-      <c r="D14" t="str">
-        <v/>
-      </c>
-      <c r="E14" t="str">
-        <v/>
-      </c>
-      <c r="F14" t="str">
-        <v/>
-      </c>
-      <c r="G14" t="str">
-        <v/>
-      </c>
-      <c r="H14" t="str">
-        <v/>
-      </c>
-      <c r="I14" t="str">
-        <v/>
-      </c>
-      <c r="J14" t="str">
-        <v/>
-      </c>
-      <c r="K14" t="str">
-        <v/>
-      </c>
-      <c r="L14" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Keish</v>
-      </c>
-      <c r="B15" t="str">
-        <v>yes</v>
-      </c>
-      <c r="C15" t="str">
-        <v/>
-      </c>
-      <c r="D15" t="str">
-        <v/>
-      </c>
-      <c r="E15" t="str">
-        <v/>
-      </c>
-      <c r="F15" t="str">
-        <v/>
-      </c>
-      <c r="G15" t="str">
-        <v/>
-      </c>
-      <c r="H15" t="str">
-        <v/>
-      </c>
-      <c r="I15" t="str">
-        <v/>
-      </c>
-      <c r="J15" t="str">
-        <v/>
-      </c>
-      <c r="K15" t="str">
-        <v/>
-      </c>
-      <c r="L15" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>Breakfast Oats</v>
-      </c>
-      <c r="B16" t="str">
-        <v>yes</v>
-      </c>
-      <c r="C16" t="str">
-        <v/>
-      </c>
-      <c r="D16" t="str">
-        <v/>
-      </c>
-      <c r="E16" t="str">
-        <v/>
-      </c>
-      <c r="F16" t="str">
-        <v/>
-      </c>
-      <c r="G16" t="str">
-        <v/>
-      </c>
-      <c r="H16" t="str">
-        <v/>
-      </c>
-      <c r="I16" t="str">
-        <v/>
-      </c>
-      <c r="J16" t="str">
-        <v/>
-      </c>
-      <c r="K16" t="str">
-        <v/>
-      </c>
-      <c r="L16" t="str">
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L9"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/goal_app_data.xlsx
+++ b/goal_app_data.xlsx
@@ -506,6 +506,7 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:C9"/>
   </ignoredErrors>
@@ -586,6 +587,7 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
   </ignoredErrors>
@@ -716,6 +718,7 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
   </ignoredErrors>
@@ -768,8 +771,14 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <v>Oatmeal</v>
+      </c>
       <c r="B2" t="str">
         <v>yes</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Doughnuts</v>
       </c>
       <c r="D2" t="str">
         <v>yes</v>
@@ -800,6 +809,9 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <v>Breakfast Oats</v>
+      </c>
       <c r="B3" t="str">
         <v>yes</v>
       </c>
@@ -835,6 +847,9 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <v>Eggs</v>
+      </c>
       <c r="B4" t="str">
         <v>yes</v>
       </c>
